--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C2C51F-39F2-7D41-899D-57BE32BEE831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A654C3B5-A28A-CD4D-B99F-B37E1BF78A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>2019-2022 DINTER Inspirar.pdf</t>
   </si>
@@ -45,30 +45,6 @@
     <t>2019-2022</t>
   </si>
   <si>
-    <t>Calendário 2019-1 Minter-Dinter.pdf</t>
-  </si>
-  <si>
-    <t>2019-1</t>
-  </si>
-  <si>
-    <t>Calendário 2019-2 Minter-Dinter.pdf</t>
-  </si>
-  <si>
-    <t>2019-2</t>
-  </si>
-  <si>
-    <t>Calendário 2020-1 Minter-Dinter.pdf</t>
-  </si>
-  <si>
-    <t>2020-1</t>
-  </si>
-  <si>
-    <t>Calendário 2020-2 Minter-Dinter.pdf</t>
-  </si>
-  <si>
-    <t>2020-2</t>
-  </si>
-  <si>
     <t>Abrir</t>
   </si>
   <si>
@@ -87,46 +63,13 @@
     <t>2021-2023</t>
   </si>
   <si>
-    <t>Calendário 2021 PCI.pdf</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/18K3uNYfMmaBWnQrYwtbXoUYp0R3tN4V1/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/18YNbrbTbGCHnJijg1lDMzosdurIYfWI0/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18ZBzg6KFEpWFkYl6FWqw01o6wCIkRutB/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18_wTW5y7hXg_ehvL_eOv6ccBX7pEmUUK/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18MnnQHiAxHOQm5JNfeA-mqgciQvQN9Ro/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/18bQ_Ki2spT9-MRpR8wqnMYeNIyFAJedX/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/18iKd6lESM_EXqxcxf9yQKNtLoNe3UmK_/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18iZ3-xV9vclDyc1pM8uuSH-VWIXmvv-I/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18qf9TyUE7ZLAPJSm2S8SWwApu52jra79/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18qg4gQMWlBV8OZXe0DKxzUzrxCU1wPVz/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/18zlnOKn1CTeqHbs40iJ8KY8oF5T9Hsdn/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18ya0xmAOAblfOCPDCa09VepSUKCTXNLL/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -500,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450AD51-0359-8B40-949E-485C4925CCA5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,41 +456,29 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{1A4E6498-3780-C642-ADD3-CA26122DDD45}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{5B70DFAF-969E-F84A-9333-59FF1F6EA5DB}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1A4E6498-3780-C642-ADD3-CA26122DDD45}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -555,7 +486,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4042AD0B-BEBF-994A-9786-C84038DCD30D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,77 +499,29 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{98D9E1AD-6780-634B-9348-AA206F406EAD}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{114B3269-25B9-924A-9C7F-1D2E037DCC76}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{3FB78699-36F4-1443-8C1B-83C414F7B7B4}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{56F4ABCA-0840-B147-AE1C-D192C6CCF52C}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{FCE16099-1814-3C46-86F6-7677A27DF273}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{98D9E1AD-6780-634B-9348-AA206F406EAD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -646,7 +529,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AFA78-9C21-3B46-8D1D-B09456F54B8D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -659,77 +542,29 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{C157B088-B08E-F14F-A246-88F9A07963C8}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{A4151088-C0D9-474B-916F-4FBE1608A759}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{F1C4FEF4-E5EA-334B-8A6E-174F4E3F5A1D}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{FB9CA448-8BA3-8548-8F05-BC59A123D881}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{34BCBCAC-F5A3-904D-9418-971EFFA4F22E}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C157B088-B08E-F14F-A246-88F9A07963C8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A654C3B5-A28A-CD4D-B99F-B37E1BF78A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C564FA35-0775-6D47-8FB7-EF781691AAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
+    <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" activeTab="2" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
   <sheets>
     <sheet name="PCI2021" sheetId="3" r:id="rId1"/>
@@ -63,13 +63,13 @@
     <t>2021-2023</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/18K3uNYfMmaBWnQrYwtbXoUYp0R3tN4V1/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18bQ_Ki2spT9-MRpR8wqnMYeNIyFAJedX/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18zlnOKn1CTeqHbs40iJ8KY8oF5T9Hsdn/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/18zlnOKn1CTeqHbs40iJ8KY8oF5T9Hsdn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18K3uNYfMmaBWnQrYwtbXoUYp0R3tN4V1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18bQ_Ki2spT9-MRpR8wqnMYeNIyFAJedX</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450AD51-0359-8B40-949E-485C4925CCA5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AFA78-9C21-3B46-8D1D-B09456F54B8D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C564FA35-0775-6D47-8FB7-EF781691AAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F252DB1F-AD18-8B4D-9D91-A0F5F175DE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" activeTab="2" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
+    <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
   <sheets>
-    <sheet name="PCI2021" sheetId="3" r:id="rId1"/>
-    <sheet name="Dinter2019" sheetId="1" r:id="rId2"/>
-    <sheet name="Minter2019" sheetId="2" r:id="rId3"/>
+    <sheet name="2023-2021 PCI" sheetId="3" r:id="rId1"/>
+    <sheet name="2022-2019 Dinter" sheetId="1" r:id="rId2"/>
+    <sheet name="2021-2019 Minter" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450AD51-0359-8B40-949E-485C4925CCA5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -486,6 +486,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4042AD0B-BEBF-994A-9786-C84038DCD30D}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{98D9E1AD-6780-634B-9348-AA206F406EAD}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AFA78-9C21-3B46-8D1D-B09456F54B8D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -513,49 +558,6 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{98D9E1AD-6780-634B-9348-AA206F406EAD}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AFA78-9C21-3B46-8D1D-B09456F54B8D}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F252DB1F-AD18-8B4D-9D91-A0F5F175DE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B585F147-939E-AF41-9F27-FEECE31AEDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
@@ -488,9 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4042AD0B-BEBF-994A-9786-C84038DCD30D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B585F147-939E-AF41-9F27-FEECE31AEDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE0EA87-647D-5E49-AA6C-BF313B37ED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023-2021 PCI" sheetId="3" r:id="rId1"/>
-    <sheet name="2022-2019 Dinter" sheetId="1" r:id="rId2"/>
-    <sheet name="2021-2019 Minter" sheetId="2" r:id="rId3"/>
+    <sheet name="2023-2025 Minter" sheetId="4" r:id="rId1"/>
+    <sheet name="2023-2021 PCI" sheetId="3" r:id="rId2"/>
+    <sheet name="2022-2019 Dinter" sheetId="1" r:id="rId3"/>
+    <sheet name="2021-2019 Minter" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>2019-2022 DINTER Inspirar.pdf</t>
   </si>
@@ -70,6 +71,42 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/18bQ_Ki2spT9-MRpR8wqnMYeNIyFAJedX</t>
+  </si>
+  <si>
+    <t>05/11/2019</t>
+  </si>
+  <si>
+    <t>Portaria nº 243, de 5 de Novembro de 2019</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=2822#anchor</t>
+  </si>
+  <si>
+    <t>Portaria nº 120, de 26 de Junho de 2023</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=12202#anchor</t>
+  </si>
+  <si>
+    <t>26/062023</t>
+  </si>
+  <si>
+    <t>Portaria nº 237, de 7 de Dezembro de 2017</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=148#anchor</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Portaria nº 247, de 20 de Dezembro de 2017</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=143#anchor</t>
+  </si>
+  <si>
+    <t>20/12/2017</t>
   </si>
 </sst>
 </file>
@@ -442,16 +479,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450AD51-0359-8B40-949E-485C4925CCA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CFCCF9-EE4D-2D46-A30A-BCDCDFCBDF40}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -467,34 +504,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1A4E6498-3780-C642-ADD3-CA26122DDD45}"/>
+    <hyperlink ref="C2" r:id="rId1" location="anchor" xr:uid="{FCFE5803-E5E2-8E48-BEBE-1296A8659008}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4042AD0B-BEBF-994A-9786-C84038DCD30D}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450AD51-0359-8B40-949E-485C4925CCA5}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -510,34 +547,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{98D9E1AD-6780-634B-9348-AA206F406EAD}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1A4E6498-3780-C642-ADD3-CA26122DDD45}"/>
+    <hyperlink ref="C3" r:id="rId2" location="anchor" xr:uid="{BCF02DD8-57B2-E849-A4EB-4195968657F6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AFA78-9C21-3B46-8D1D-B09456F54B8D}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4042AD0B-BEBF-994A-9786-C84038DCD30D}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -556,15 +605,106 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{98D9E1AD-6780-634B-9348-AA206F406EAD}"/>
+    <hyperlink ref="C4" r:id="rId2" location="anchor" xr:uid="{A524F980-D329-F54E-94CE-E33D1DBAA931}"/>
+    <hyperlink ref="C3" r:id="rId3" location="anchor" xr:uid="{C8F3347C-5575-B142-BF2C-203554AFB8D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AFA78-9C21-3B46-8D1D-B09456F54B8D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{C157B088-B08E-F14F-A246-88F9A07963C8}"/>
+    <hyperlink ref="C4" r:id="rId2" location="anchor" xr:uid="{4FC425CF-2BA3-5344-B3CC-7FC5EB645B78}"/>
+    <hyperlink ref="C3" r:id="rId3" location="anchor" xr:uid="{7A33B375-E2F0-6E4C-852A-F0BBE27E12C3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE0EA87-647D-5E49-AA6C-BF313B37ED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E038F19D-13F7-1543-A2D1-446998232DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=12202#anchor</t>
   </si>
   <si>
-    <t>26/062023</t>
-  </si>
-  <si>
     <t>Portaria nº 237, de 7 de Dezembro de 2017</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>20/12/2017</t>
+  </si>
+  <si>
+    <t>26/06/2023</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -613,24 +613,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -680,24 +680,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E038F19D-13F7-1543-A2D1-446998232DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C682E630-5D52-E84E-8511-B53B375B1E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2025 Minter" sheetId="4" r:id="rId1"/>
-    <sheet name="2023-2021 PCI" sheetId="3" r:id="rId2"/>
+    <sheet name="2023-2021 Minter" sheetId="3" r:id="rId2"/>
     <sheet name="2022-2019 Dinter" sheetId="1" r:id="rId3"/>
     <sheet name="2021-2019 Minter" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>2019-2022 DINTER Inspirar.pdf</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>26/06/2023</t>
+  </si>
+  <si>
+    <t>2023-2025</t>
+  </si>
+  <si>
+    <t>2023-2025 PCI Minter UNDB-INSPIRAR.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1POUzcXsQJUaBUrxJ-ivoFAKE2Jl6YjrQ</t>
   </si>
 </sst>
 </file>
@@ -480,14 +489,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CFCCF9-EE4D-2D46-A30A-BCDCDFCBDF40}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,9 +522,33 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" location="anchor" xr:uid="{FCFE5803-E5E2-8E48-BEBE-1296A8659008}"/>
+    <hyperlink ref="C4" r:id="rId2" location="anchor" xr:uid="{73780AF2-55A3-FA42-A7F2-03A5F6A37935}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{C80A2E60-C5AF-A344-9425-50CE6969F721}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C682E630-5D52-E84E-8511-B53B375B1E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10834D5-604F-C144-A257-D3AB95F3D39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2025 Minter" sheetId="4" r:id="rId1"/>
-    <sheet name="2023-2021 Minter" sheetId="3" r:id="rId2"/>
-    <sheet name="2022-2019 Dinter" sheetId="1" r:id="rId3"/>
-    <sheet name="2021-2019 Minter" sheetId="2" r:id="rId4"/>
+    <sheet name="2021-2023 Minter" sheetId="3" r:id="rId2"/>
+    <sheet name="2019-2023 Dinter" sheetId="1" r:id="rId3"/>
+    <sheet name="2019-2021 Minter" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10834D5-604F-C144-A257-D3AB95F3D39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A800A5-6CCB-5642-AAFC-71ED40D25BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>2019-2022 DINTER Inspirar.pdf</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1POUzcXsQJUaBUrxJ-ivoFAKE2Jl6YjrQ</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Brasil</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CFCCF9-EE4D-2D46-A30A-BCDCDFCBDF40}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,10 +503,11 @@
   <cols>
     <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="72.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -508,47 +515,59 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="anchor" xr:uid="{FCFE5803-E5E2-8E48-BEBE-1296A8659008}"/>
-    <hyperlink ref="C4" r:id="rId2" location="anchor" xr:uid="{73780AF2-55A3-FA42-A7F2-03A5F6A37935}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{C80A2E60-C5AF-A344-9425-50CE6969F721}"/>
+    <hyperlink ref="D2" r:id="rId1" location="anchor" xr:uid="{FCFE5803-E5E2-8E48-BEBE-1296A8659008}"/>
+    <hyperlink ref="D4" r:id="rId2" location="anchor" xr:uid="{73780AF2-55A3-FA42-A7F2-03A5F6A37935}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{C80A2E60-C5AF-A344-9425-50CE6969F721}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -556,7 +575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450AD51-0359-8B40-949E-485C4925CCA5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -564,10 +583,11 @@
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -575,35 +595,44 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1A4E6498-3780-C642-ADD3-CA26122DDD45}"/>
-    <hyperlink ref="C3" r:id="rId2" location="anchor" xr:uid="{BCF02DD8-57B2-E849-A4EB-4195968657F6}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1A4E6498-3780-C642-ADD3-CA26122DDD45}"/>
+    <hyperlink ref="D3" r:id="rId2" location="anchor" xr:uid="{BCF02DD8-57B2-E849-A4EB-4195968657F6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -611,7 +640,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4042AD0B-BEBF-994A-9786-C84038DCD30D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +648,11 @@
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -630,47 +660,59 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{98D9E1AD-6780-634B-9348-AA206F406EAD}"/>
-    <hyperlink ref="C4" r:id="rId2" location="anchor" xr:uid="{A524F980-D329-F54E-94CE-E33D1DBAA931}"/>
-    <hyperlink ref="C3" r:id="rId3" location="anchor" xr:uid="{C8F3347C-5575-B142-BF2C-203554AFB8D8}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{98D9E1AD-6780-634B-9348-AA206F406EAD}"/>
+    <hyperlink ref="D4" r:id="rId2" location="anchor" xr:uid="{A524F980-D329-F54E-94CE-E33D1DBAA931}"/>
+    <hyperlink ref="D3" r:id="rId3" location="anchor" xr:uid="{C8F3347C-5575-B142-BF2C-203554AFB8D8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -678,7 +720,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AFA78-9C21-3B46-8D1D-B09456F54B8D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,10 +728,11 @@
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -697,47 +740,59 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C157B088-B08E-F14F-A246-88F9A07963C8}"/>
-    <hyperlink ref="C4" r:id="rId2" location="anchor" xr:uid="{4FC425CF-2BA3-5344-B3CC-7FC5EB645B78}"/>
-    <hyperlink ref="C3" r:id="rId3" location="anchor" xr:uid="{7A33B375-E2F0-6E4C-852A-F0BBE27E12C3}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C157B088-B08E-F14F-A246-88F9A07963C8}"/>
+    <hyperlink ref="D4" r:id="rId2" location="anchor" xr:uid="{4FC425CF-2BA3-5344-B3CC-7FC5EB645B78}"/>
+    <hyperlink ref="D3" r:id="rId3" location="anchor" xr:uid="{7A33B375-E2F0-6E4C-852A-F0BBE27E12C3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A800A5-6CCB-5642-AAFC-71ED40D25BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18652B7-4CF0-F849-823D-07E005A2B92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023-2025 Minter" sheetId="4" r:id="rId1"/>
-    <sheet name="2021-2023 Minter" sheetId="3" r:id="rId2"/>
-    <sheet name="2019-2023 Dinter" sheetId="1" r:id="rId3"/>
-    <sheet name="2019-2021 Minter" sheetId="2" r:id="rId4"/>
+    <sheet name="2024 Minter" sheetId="5" r:id="rId1"/>
+    <sheet name="2023 Minter" sheetId="4" r:id="rId2"/>
+    <sheet name="2021-2023 Minter" sheetId="3" r:id="rId3"/>
+    <sheet name="2019-2023 Dinter" sheetId="1" r:id="rId4"/>
+    <sheet name="2019-2021 Minter" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>2019-2022 DINTER Inspirar.pdf</t>
   </si>
@@ -122,6 +123,24 @@
   </si>
   <si>
     <t>Brasil</t>
+  </si>
+  <si>
+    <t>2024-2026</t>
+  </si>
+  <si>
+    <t>2023-2025 PCI Minter UNILAVRAS.pdf</t>
+  </si>
+  <si>
+    <t>28/06/2023</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/editais/26022024_Edital_2328837_SEI_2326326_Edital_02_2024.pdf</t>
+  </si>
+  <si>
+    <t>EDITAL No 02/2024 - CHAMADA PÚBLICA PARA ENVIO DE PROPOSTA DE PROJETO DE COOPERAÇÃO ENTRE INSTITUIÇÕES PARA QUALIFICAÇÃO DE PROFISSIONAIS DE NÍVEL SUPERIOR (PCI)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10JVRqJFiIJtuwCZCC7ocMbq5mv4I3y2a</t>
   </si>
 </sst>
 </file>
@@ -199,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -345,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,14 +506,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CFCCF9-EE4D-2D46-A30A-BCDCDFCBDF40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379CFE2-697E-674A-AA66-13D5100CA60D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -537,6 +556,86 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" location="anchor" xr:uid="{396148AF-3D32-2542-A7F7-C50E2FCCA692}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D100D74A-40F8-294E-9A91-904869F75962}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{B3B4BFF9-2AC9-554B-A6A6-7578F92528C8}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CFCCF9-EE4D-2D46-A30A-BCDCDFCBDF40}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="72.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
@@ -573,7 +672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450AD51-0359-8B40-949E-485C4925CCA5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -638,7 +737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4042AD0B-BEBF-994A-9786-C84038DCD30D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -718,7 +817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AFA78-9C21-3B46-8D1D-B09456F54B8D}">
   <dimension ref="A1:D4"/>
   <sheetViews>

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18652B7-4CF0-F849-823D-07E005A2B92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB790E84-FC04-1540-8DDA-A046A614B064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024 Minter" sheetId="5" r:id="rId1"/>
+    <sheet name="2025 Minter" sheetId="5" r:id="rId1"/>
     <sheet name="2023 Minter" sheetId="4" r:id="rId2"/>
     <sheet name="2021-2023 Minter" sheetId="3" r:id="rId3"/>
     <sheet name="2019-2023 Dinter" sheetId="1" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>2019-2022 DINTER Inspirar.pdf</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/10JVRqJFiIJtuwCZCC7ocMbq5mv4I3y2a</t>
+  </si>
+  <si>
+    <t>2025-1 PPGCR Edital N° 07 MA PCI</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/123v08vwPU1M1TzGgT5v6RAsZJtKl6Oqp</t>
   </si>
 </sst>
 </file>
@@ -514,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379CFE2-697E-674A-AA66-13D5100CA60D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,11 +591,26 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" location="anchor" xr:uid="{396148AF-3D32-2542-A7F7-C50E2FCCA692}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{D100D74A-40F8-294E-9A91-904869F75962}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{B3B4BFF9-2AC9-554B-A6A6-7578F92528C8}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{50A1F729-0673-3D4B-A788-05455295AE43}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB790E84-FC04-1540-8DDA-A046A614B064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC588B70-1694-2744-B93E-482C1895A110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>2019-2022 DINTER Inspirar.pdf</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/123v08vwPU1M1TzGgT5v6RAsZJtKl6Oqp</t>
+  </si>
+  <si>
+    <t>14/11/2024</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AcPsus_Wtux72vRj-uOKuTqXb39bCI5I</t>
+  </si>
+  <si>
+    <t>Calendário 2025-2026 PCI UNILAVRAS</t>
   </si>
 </sst>
 </file>
@@ -523,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379CFE2-697E-674A-AA66-13D5100CA60D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="4" width="72.5" bestFit="1" customWidth="1"/>
@@ -605,12 +614,27 @@
         <v>36</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" location="anchor" xr:uid="{396148AF-3D32-2542-A7F7-C50E2FCCA692}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{D100D74A-40F8-294E-9A91-904869F75962}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{B3B4BFF9-2AC9-554B-A6A6-7578F92528C8}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{50A1F729-0673-3D4B-A788-05455295AE43}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{0D354EEB-6A59-754E-8C05-44E6F6D26E60}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Cooperações.xlsx
+++ b/PPG/Cooperações.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC588B70-1694-2744-B93E-482C1895A110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD149FF-E31A-7B43-BEAA-FF03C7E84120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1000" windowWidth="27180" windowHeight="16400" xr2:uid="{6C0C252B-F9DA-E64B-85F7-48209B384E51}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025 Minter" sheetId="5" r:id="rId1"/>
-    <sheet name="2023 Minter" sheetId="4" r:id="rId2"/>
-    <sheet name="2021-2023 Minter" sheetId="3" r:id="rId3"/>
-    <sheet name="2019-2023 Dinter" sheetId="1" r:id="rId4"/>
-    <sheet name="2019-2021 Minter" sheetId="2" r:id="rId5"/>
+    <sheet name="2026 Minter" sheetId="6" r:id="rId1"/>
+    <sheet name="2025 Minter" sheetId="5" r:id="rId2"/>
+    <sheet name="2023 Minter" sheetId="4" r:id="rId3"/>
+    <sheet name="2021-2023 Minter" sheetId="3" r:id="rId4"/>
+    <sheet name="2019-2023 Dinter" sheetId="1" r:id="rId5"/>
+    <sheet name="2019-2021 Minter" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>2019-2022 DINTER Inspirar.pdf</t>
   </si>
@@ -159,6 +160,33 @@
   </si>
   <si>
     <t>Calendário 2025-2026 PCI UNILAVRAS</t>
+  </si>
+  <si>
+    <t>2026-2027</t>
+  </si>
+  <si>
+    <t>2026-2027 PCI Minter SOBERANA.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_ZU1RsU9e2RHYJli0JYO6biRxg3s9TKy</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/editais/31072025_Edital_2646654_SEI_2644987_Edital_14_2025.pdf</t>
+  </si>
+  <si>
+    <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>Portaria nº 207, de 6 de Agosto de 2025</t>
+  </si>
+  <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>https://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=18585#anchor</t>
+  </si>
+  <si>
+    <t>EDITAL No 14/2025 - CHAMADA PÚBLICA PARA ENVIO DE PROPOSTA DE PROJETO DE COOPERAÇÃO ENTRE INSTITUIÇÕES PARA QUALIFICAÇÃO DE PROFISSIONAIS DE NÍVEL SUPERIOR (PCI)</t>
   </si>
 </sst>
 </file>
@@ -531,8 +559,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379CFE2-697E-674A-AA66-13D5100CA60D}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD747EED-FC65-B34E-9D2D-3C25FDDBC757}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,6 +588,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{88491D03-95FD-2549-BC2F-E0020C8AB215}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{31A010A7-3D62-924A-A843-F9A069BC2188}"/>
+    <hyperlink ref="D2" r:id="rId3" location="anchor" xr:uid="{CCBFA599-E9A7-6D47-AB0E-D5E7DE74D7A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379CFE2-697E-674A-AA66-13D5100CA60D}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="72.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
@@ -640,7 +748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CFCCF9-EE4D-2D46-A30A-BCDCDFCBDF40}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -720,7 +828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450AD51-0359-8B40-949E-485C4925CCA5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -785,7 +893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4042AD0B-BEBF-994A-9786-C84038DCD30D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -865,7 +973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AFA78-9C21-3B46-8D1D-B09456F54B8D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
